--- a/HomeWorks/prom_CS/docs/03_V1-Календарно-ресурсные планы.xlsx
+++ b/HomeWorks/prom_CS/docs/03_V1-Календарно-ресурсные планы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Диаграмма Гантта" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="232">
   <si>
     <t>Задача</t>
   </si>
@@ -710,13 +710,112 @@
   </si>
   <si>
     <t>сдача проекта</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Роль / позиция</t>
+  </si>
+  <si>
+    <t>Задачи и зона ответственности</t>
+  </si>
+  <si>
+    <t>Ключевые компетенции</t>
+  </si>
+  <si>
+    <t>Загрузка по фазам проекта¹</t>
+  </si>
+  <si>
+    <t>Руководитель проекта (PM)</t>
+  </si>
+  <si>
+    <t>• формирование и защита устава, календаря и бюджета• управление контрактами и изменениями (change-control board)• коммуникации с ФСТЭК/Ростехнадзором и топ-менеджментом• управление рисками, подготовка ежемесячного статуса</t>
+  </si>
+  <si>
+    <t>PMP / Prince2, опыт КИИ-проектов, переговоры, регуляторика 187-ФЗ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,8 FTE в фазах 1-5 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(20 ч/неделя)</t>
+    </r>
+  </si>
+  <si>
+    <t>Главный инженер проекта (Chief Engineer / Tech Lead)</t>
+  </si>
+  <si>
+    <t>• техническое руководство и ревью НТД (ТЗ, ПИ, ЭД)• контроль интеграции Siemens PCS 7 / Schneider Triconex с SOC-шлюзами• проверка качества пилотных внедрений, FAT/SAT</t>
+  </si>
+  <si>
+    <t>IEC 62443, OT-сегментация, сетевые протоколы ICS, методики ПД 239</t>
+  </si>
+  <si>
+    <t>1,0 FTE весь цикл</t>
+  </si>
+  <si>
+    <t>Архитектор OT/IT-безопасности</t>
+  </si>
+  <si>
+    <t>• проектирование референс-архитектуры OT-IT DMZ• разработка схем резервирования и крипто-VPN• выбор СЗИ, подготовка пояснительной записки НДВ/КС1</t>
+  </si>
+  <si>
+    <t>TOGAF, Zero Trust, криптограф. СЗИ, MaxPatrol SIEM</t>
+  </si>
+  <si>
+    <t>0,6 FTE (фазы 1-3)</t>
+  </si>
+  <si>
+    <t>Инженер-интегратор SIEM/SOAR</t>
+  </si>
+  <si>
+    <t>• настройка лог-коллекторов, написание CEF/LEEF-коннекторов• создание корреляционных правил и SOAR-плейбуков• нагрузочное тестирование, построение отчётов SLA/SLO</t>
+  </si>
+  <si>
+    <t>Regex, Python, MaxPatrol / R-Vision, MITRE ATT&amp;CK ICS</t>
+  </si>
+  <si>
+    <t>1,0 FTE (фазы 2-4)</t>
+  </si>
+  <si>
+    <t>Полевой инженер-монтажник</t>
+  </si>
+  <si>
+    <t>• поставка и монтаж аппаратных лог-коллекторов и NGFW• коммутация, настройка L2/L3, испытания каналов связи• ведение исполнительной документации</t>
+  </si>
+  <si>
+    <t>CCNP, электро-допуск IV гр., монтаж СКС, SD-WAN</t>
+  </si>
+  <si>
+    <t>0,8 FTE (фазы 3-4)</t>
+  </si>
+  <si>
+    <t>OT-сайт-инженер / Комиссионер</t>
+  </si>
+  <si>
+    <t>• установка агентов на HMI/ESM, конфигурирование SCADA-export• координация с дежурными сменами, проведение PSSR• обучение персонала площадок, приёмка по чек-листам</t>
+  </si>
+  <si>
+    <t>TIA Portal, Triconex TriStation, регламенты ПАЗ, методики HAZOP</t>
+  </si>
+  <si>
+    <t>0,8 FTE (фазы 3-5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +833,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1153,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1427,9 +1540,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1463,9 +1573,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1475,6 +1582,21 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1705,10 +1827,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:LG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="N42" sqref="N42"/>
-      <selection pane="topRight" activeCell="BK11" sqref="BF11:BK11"/>
+      <selection pane="topRight" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2803,7 +2925,7 @@
       <c r="AJ10" s="74"/>
       <c r="AK10" s="74"/>
       <c r="AL10" s="76"/>
-      <c r="AM10" s="112"/>
+      <c r="AM10" s="111"/>
       <c r="AN10" s="74"/>
       <c r="AO10" s="74"/>
       <c r="AP10" s="74"/>
@@ -2920,22 +3042,22 @@
       <c r="BC11" s="69"/>
       <c r="BD11" s="69"/>
       <c r="BE11" s="69"/>
-      <c r="BF11" s="132"/>
-      <c r="BG11" s="132"/>
-      <c r="BH11" s="132"/>
-      <c r="BI11" s="132"/>
-      <c r="BJ11" s="132"/>
-      <c r="BK11" s="133"/>
-      <c r="BL11" s="134"/>
-      <c r="BM11" s="132"/>
-      <c r="BN11" s="132"/>
-      <c r="BO11" s="132"/>
-      <c r="BP11" s="132"/>
-      <c r="BQ11" s="132"/>
-      <c r="BR11" s="132"/>
-      <c r="BS11" s="132"/>
-      <c r="BT11" s="132"/>
-      <c r="BU11" s="132"/>
+      <c r="BF11" s="130"/>
+      <c r="BG11" s="130"/>
+      <c r="BH11" s="130"/>
+      <c r="BI11" s="130"/>
+      <c r="BJ11" s="130"/>
+      <c r="BK11" s="131"/>
+      <c r="BL11" s="132"/>
+      <c r="BM11" s="130"/>
+      <c r="BN11" s="130"/>
+      <c r="BO11" s="130"/>
+      <c r="BP11" s="130"/>
+      <c r="BQ11" s="130"/>
+      <c r="BR11" s="130"/>
+      <c r="BS11" s="130"/>
+      <c r="BT11" s="130"/>
+      <c r="BU11" s="130"/>
       <c r="BV11" s="74"/>
       <c r="BW11" s="74"/>
       <c r="BX11" s="69"/>
@@ -3038,12 +3160,12 @@
       <c r="BW12" s="69"/>
       <c r="BX12" s="74"/>
       <c r="BY12" s="74"/>
-      <c r="BZ12" s="132"/>
-      <c r="CA12" s="132"/>
-      <c r="CB12" s="132"/>
-      <c r="CC12" s="133"/>
+      <c r="BZ12" s="130"/>
+      <c r="CA12" s="130"/>
+      <c r="CB12" s="130"/>
+      <c r="CC12" s="131"/>
       <c r="CD12" s="72"/>
-      <c r="CE12" s="128"/>
+      <c r="CE12" s="126"/>
     </row>
     <row r="13" spans="1:83" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -3136,12 +3258,12 @@
       <c r="BW13" s="78"/>
       <c r="BX13" s="78"/>
       <c r="BY13" s="78"/>
-      <c r="BZ13" s="130"/>
-      <c r="CA13" s="130"/>
-      <c r="CB13" s="130"/>
-      <c r="CC13" s="131"/>
-      <c r="CD13" s="129"/>
-      <c r="CE13" s="122"/>
+      <c r="BZ13" s="128"/>
+      <c r="CA13" s="128"/>
+      <c r="CB13" s="128"/>
+      <c r="CC13" s="129"/>
+      <c r="CD13" s="127"/>
+      <c r="CE13" s="121"/>
     </row>
     <row r="14" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
@@ -6372,82 +6494,82 @@
       <c r="BE30" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="BF30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK30" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL30" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BO30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BR30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BX30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB30" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC30" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="CD30" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE30" s="114" t="s">
+      <c r="BF30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK30" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL30" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB30" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC30" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD30" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE30" s="113" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6817,7 +6939,7 @@
       <c r="AL34" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="AM34" s="115" t="s">
+      <c r="AM34" s="114" t="s">
         <v>97</v>
       </c>
       <c r="AN34" s="93" t="s">
@@ -7098,7 +7220,7 @@
       <c r="BZ35" s="23"/>
       <c r="CA35" s="23"/>
       <c r="CB35" s="23"/>
-      <c r="CC35" s="124"/>
+      <c r="CC35" s="123"/>
       <c r="CD35" s="96" t="s">
         <v>97</v>
       </c>
@@ -8271,9 +8393,9 @@
       <c r="AJ48" s="101"/>
       <c r="AK48" s="101"/>
       <c r="AL48" s="105"/>
-      <c r="AM48" s="116"/>
-      <c r="AN48" s="117"/>
-      <c r="AO48" s="117"/>
+      <c r="AM48" s="115"/>
+      <c r="AN48" s="116"/>
+      <c r="AO48" s="116"/>
       <c r="AP48" s="104"/>
       <c r="AQ48" s="104"/>
       <c r="AR48" s="104"/>
@@ -8295,7 +8417,7 @@
       <c r="BH48" s="104"/>
       <c r="BI48" s="104"/>
       <c r="BJ48" s="104"/>
-      <c r="BK48" s="118"/>
+      <c r="BK48" s="117"/>
       <c r="BL48" s="103"/>
       <c r="BM48" s="104"/>
       <c r="BN48" s="104"/>
@@ -8369,7 +8491,7 @@
       <c r="AJ49" s="101"/>
       <c r="AK49" s="101"/>
       <c r="AL49" s="106"/>
-      <c r="AM49" s="119"/>
+      <c r="AM49" s="118"/>
       <c r="AN49" s="69"/>
       <c r="AO49" s="69"/>
       <c r="AP49" s="100"/>
@@ -8785,8 +8907,8 @@
       <c r="BH53" s="69"/>
       <c r="BI53" s="69"/>
       <c r="BJ53" s="100"/>
-      <c r="BK53" s="120"/>
-      <c r="BL53" s="125"/>
+      <c r="BK53" s="119"/>
+      <c r="BL53" s="124"/>
       <c r="BM53" s="100"/>
       <c r="BN53" s="69"/>
       <c r="BO53" s="69"/>
@@ -9094,7 +9216,7 @@
       <c r="AJ57" s="64"/>
       <c r="AK57" s="64"/>
       <c r="AL57" s="107"/>
-      <c r="AM57" s="121"/>
+      <c r="AM57" s="120"/>
       <c r="AN57" s="69"/>
       <c r="AO57" s="69"/>
       <c r="AP57" s="69"/>
@@ -9426,9 +9548,9 @@
       <c r="BV60" s="109"/>
       <c r="BW60" s="109"/>
       <c r="BX60" s="109"/>
-      <c r="BY60" s="126"/>
-      <c r="BZ60" s="126"/>
-      <c r="CA60" s="126"/>
+      <c r="BY60" s="125"/>
+      <c r="BZ60" s="125"/>
+      <c r="CA60" s="125"/>
       <c r="CB60" s="109"/>
       <c r="CC60" s="110"/>
       <c r="CD60" s="108"/>
@@ -9437,92 +9559,92 @@
     <row r="61" spans="1:83" x14ac:dyDescent="0.3">
       <c r="B61" s="44"/>
       <c r="D61" s="44"/>
-      <c r="F61" s="111" t="s">
+      <c r="F61" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="111"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
-      <c r="S61" s="111"/>
-      <c r="T61" s="111"/>
-      <c r="U61" s="111"/>
-      <c r="V61" s="111"/>
-      <c r="W61" s="111"/>
-      <c r="X61" s="111"/>
-      <c r="Y61" s="111"/>
-      <c r="Z61" s="111"/>
-      <c r="AA61" s="111"/>
-      <c r="AB61" s="111"/>
-      <c r="AC61" s="111"/>
-      <c r="AD61" s="111"/>
-      <c r="AE61" s="111"/>
-      <c r="AF61" s="111"/>
-      <c r="AG61" s="111"/>
-      <c r="AH61" s="111"/>
-      <c r="AI61" s="111"/>
-      <c r="AJ61" s="111"/>
-      <c r="AK61" s="111"/>
-      <c r="AL61" s="111"/>
-      <c r="AM61" s="111" t="s">
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="133"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="133"/>
+      <c r="N61" s="133"/>
+      <c r="O61" s="133"/>
+      <c r="P61" s="133"/>
+      <c r="Q61" s="133"/>
+      <c r="R61" s="133"/>
+      <c r="S61" s="133"/>
+      <c r="T61" s="133"/>
+      <c r="U61" s="133"/>
+      <c r="V61" s="133"/>
+      <c r="W61" s="133"/>
+      <c r="X61" s="133"/>
+      <c r="Y61" s="133"/>
+      <c r="Z61" s="133"/>
+      <c r="AA61" s="133"/>
+      <c r="AB61" s="133"/>
+      <c r="AC61" s="133"/>
+      <c r="AD61" s="133"/>
+      <c r="AE61" s="133"/>
+      <c r="AF61" s="133"/>
+      <c r="AG61" s="133"/>
+      <c r="AH61" s="133"/>
+      <c r="AI61" s="133"/>
+      <c r="AJ61" s="133"/>
+      <c r="AK61" s="133"/>
+      <c r="AL61" s="133"/>
+      <c r="AM61" s="133" t="s">
         <v>200</v>
       </c>
-      <c r="AN61" s="111"/>
-      <c r="AO61" s="111"/>
-      <c r="AP61" s="111"/>
-      <c r="AQ61" s="111"/>
-      <c r="AR61" s="111"/>
-      <c r="AS61" s="111"/>
-      <c r="AT61" s="111"/>
-      <c r="AU61" s="111"/>
-      <c r="AV61" s="111"/>
-      <c r="AW61" s="111"/>
-      <c r="AX61" s="111"/>
-      <c r="AY61" s="111"/>
-      <c r="AZ61" s="111"/>
-      <c r="BA61" s="111"/>
-      <c r="BB61" s="111"/>
-      <c r="BC61" s="111"/>
-      <c r="BD61" s="111"/>
-      <c r="BE61" s="111"/>
-      <c r="BF61" s="111"/>
-      <c r="BG61" s="111"/>
-      <c r="BH61" s="111"/>
-      <c r="BI61" s="111"/>
-      <c r="BJ61" s="111"/>
-      <c r="BK61" s="111"/>
-      <c r="BL61" s="111" t="s">
+      <c r="AN61" s="133"/>
+      <c r="AO61" s="133"/>
+      <c r="AP61" s="133"/>
+      <c r="AQ61" s="133"/>
+      <c r="AR61" s="133"/>
+      <c r="AS61" s="133"/>
+      <c r="AT61" s="133"/>
+      <c r="AU61" s="133"/>
+      <c r="AV61" s="133"/>
+      <c r="AW61" s="133"/>
+      <c r="AX61" s="133"/>
+      <c r="AY61" s="133"/>
+      <c r="AZ61" s="133"/>
+      <c r="BA61" s="133"/>
+      <c r="BB61" s="133"/>
+      <c r="BC61" s="133"/>
+      <c r="BD61" s="133"/>
+      <c r="BE61" s="133"/>
+      <c r="BF61" s="133"/>
+      <c r="BG61" s="133"/>
+      <c r="BH61" s="133"/>
+      <c r="BI61" s="133"/>
+      <c r="BJ61" s="133"/>
+      <c r="BK61" s="133"/>
+      <c r="BL61" s="133" t="s">
         <v>201</v>
       </c>
-      <c r="BM61" s="111"/>
-      <c r="BN61" s="111"/>
-      <c r="BO61" s="111"/>
-      <c r="BP61" s="111"/>
-      <c r="BQ61" s="111"/>
-      <c r="BR61" s="111"/>
-      <c r="BS61" s="111"/>
-      <c r="BT61" s="111"/>
-      <c r="BU61" s="111"/>
-      <c r="BV61" s="111"/>
-      <c r="BW61" s="111"/>
-      <c r="BX61" s="111"/>
-      <c r="BY61" s="111"/>
-      <c r="BZ61" s="111"/>
-      <c r="CA61" s="111"/>
-      <c r="CB61" s="111"/>
-      <c r="CC61" s="111"/>
-      <c r="CD61" s="127" t="s">
+      <c r="BM61" s="133"/>
+      <c r="BN61" s="133"/>
+      <c r="BO61" s="133"/>
+      <c r="BP61" s="133"/>
+      <c r="BQ61" s="133"/>
+      <c r="BR61" s="133"/>
+      <c r="BS61" s="133"/>
+      <c r="BT61" s="133"/>
+      <c r="BU61" s="133"/>
+      <c r="BV61" s="133"/>
+      <c r="BW61" s="133"/>
+      <c r="BX61" s="133"/>
+      <c r="BY61" s="133"/>
+      <c r="BZ61" s="133"/>
+      <c r="CA61" s="133"/>
+      <c r="CB61" s="133"/>
+      <c r="CC61" s="133"/>
+      <c r="CD61" s="134" t="s">
         <v>202</v>
       </c>
-      <c r="CE61" s="127"/>
+      <c r="CE61" s="134"/>
     </row>
     <row r="62" spans="1:83" x14ac:dyDescent="0.3">
       <c r="B62" s="44"/>
@@ -9543,10 +9665,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9555,9 +9677,14 @@
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="39.77734375" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>138</v>
       </c>
@@ -9571,7 +9698,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>142</v>
       </c>
@@ -9587,7 +9714,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>143</v>
       </c>
@@ -9603,7 +9730,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>144</v>
       </c>
@@ -9619,7 +9746,7 @@
         <v>2625000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>145</v>
       </c>
@@ -9635,7 +9762,7 @@
         <v>4767000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>146</v>
       </c>
@@ -9647,6 +9774,125 @@
       <c r="D6" s="45">
         <f>SUM(D2:D5)</f>
         <v>14892000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F9" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="135" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="135" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="137">
+        <v>1</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="136" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" s="136" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="F11" s="137">
+        <v>2</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="136" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" s="136" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="F12" s="137">
+        <v>3</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="F13" s="137">
+        <v>4</v>
+      </c>
+      <c r="G13" s="137" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="136" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F14" s="137">
+        <v>5</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="136" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="136" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="136" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="F15" s="137">
+        <v>6</v>
+      </c>
+      <c r="G15" s="137" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="I15" s="136" t="s">
+        <v>230</v>
+      </c>
+      <c r="J15" s="136" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -9660,8 +9906,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
